--- a/resources/del/blank.xlsx
+++ b/resources/del/blank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Автомобильная зарядка Xiaomi</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:25</t>
+    <t>03.02.2022 11:19:06</t>
   </si>
   <si>
     <t>600.00 RUB</t>
@@ -60,9 +60,6 @@
     <t>Видеокамера Canon EOS C300</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:24</t>
-  </si>
-  <si>
     <t>345000.00 RUB</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Видеокамера Insta360 Pro</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:23</t>
-  </si>
-  <si>
     <t>329000.00 RUB</t>
   </si>
   <si>
@@ -126,7 +120,7 @@
     <t>Газонокосилка BOSCH ARM 37 (0.600.8A6.201)</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:38</t>
+    <t>03.02.2022 11:19:10</t>
   </si>
   <si>
     <t>8080.00 RUB</t>
@@ -153,9 +147,6 @@
     <t>Газонокосилка Hammer KMT145SB</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:39</t>
-  </si>
-  <si>
     <t>16850.00 RUB</t>
   </si>
   <si>
@@ -192,7 +183,7 @@
     <t>Закрытая кабина Aqualux AQ-4072GFL</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:32</t>
+    <t>03.02.2022 11:19:08</t>
   </si>
   <si>
     <t>23500.00 RUB</t>
@@ -201,9 +192,6 @@
     <t>Закрытая кабина Parly S120 L</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:33</t>
-  </si>
-  <si>
     <t>25290.00 RUB</t>
   </si>
   <si>
@@ -228,16 +216,13 @@
     <t>Зеркальный фотоаппарат Pentax K-1 Kit</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:31</t>
-  </si>
-  <si>
     <t>159990.00 RUB</t>
   </si>
   <si>
     <t>Клавиатура A4Tech B314 Black USB</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:27</t>
+    <t>03.02.2022 11:19:07</t>
   </si>
   <si>
     <t>1629.00 RUB</t>
@@ -270,9 +255,6 @@
     <t>Компактный фотоаппарат Canon PowerShot SX420 IS</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:30</t>
-  </si>
-  <si>
     <t>15050.00 RUB</t>
   </si>
   <si>
@@ -291,9 +273,6 @@
     <t>Компьютер Dell Inspiron 5680-7222 MT</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:26</t>
-  </si>
-  <si>
     <t>76680.00 RUB</t>
   </si>
   <si>
@@ -354,9 +333,6 @@
     <t>Мышь COUGAR Revenger Black USB</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:28</t>
-  </si>
-  <si>
     <t>2969.00 RUB</t>
   </si>
   <si>
@@ -402,9 +378,6 @@
     <t>Плита ENDEVER IP-26</t>
   </si>
   <si>
-    <t>16.03.2022 14:52:29</t>
-  </si>
-  <si>
     <t>1362.00 RUB</t>
   </si>
   <si>
@@ -541,9 +514,6 @@
   </si>
   <si>
     <t>Цепная бензиновая пила Husqvarna 365H</t>
-  </si>
-  <si>
-    <t>16.03.2022 14:52:34</t>
   </si>
   <si>
     <t>53542.00 RUB</t>
@@ -3503,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,7 +3520,7 @@
     </row>
     <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>833</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -3567,718 +3537,718 @@
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>823</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>822</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>821</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>824</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>820</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>828</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>829</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>825</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>827</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>826</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>949</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>950</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>953</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>952</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>951</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>898</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>901</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>897</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>900</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>899</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>885</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>853</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>850</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>851</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>72</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>852</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>854</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>882</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>883</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>836</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>839</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>835</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>837</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>838</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>848</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>847</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>849</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>846</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>845</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>855</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>857</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>856</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>858</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>893</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>892</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>895</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>894</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>896</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>872</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>870</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -4286,366 +4256,366 @@
     </row>
     <row r="52" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>873</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>869</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>871</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
         <v>127</v>
-      </c>
-      <c r="F54" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>834</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>830</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>832</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>831</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>887</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>890</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>891</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>888</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>889</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>886</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>884</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>866</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>865</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>864</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>868</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>867</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>907</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>909</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>913</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>912</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>908</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>910</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>911</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
